--- a/analises_vitimizacao/dados_tratados/excel/escolas_professores_2006.xlsx
+++ b/analises_vitimizacao/dados_tratados/excel/escolas_professores_2006.xlsx
@@ -1048,7 +1048,7 @@
       </c>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>2.8</v>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         </is>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>1.3</v>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
       </c>
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>1.6</v>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
       </c>
       <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
       </c>
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="n">
-        <v>46</v>
+        <v>4.6</v>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="n">
-        <v>38</v>
+        <v>3.8</v>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         </is>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>1.7</v>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         </is>
       </c>
       <c r="AG13" t="n">
-        <v>132</v>
+        <v>13.2</v>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>1.6</v>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="n">
-        <v>41</v>
+        <v>4.1</v>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
       </c>
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="n">
-        <v>14</v>
+        <v>1.4</v>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
       </c>
       <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="n">
-        <v>51</v>
+        <v>5.1</v>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
       </c>
       <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="n">
-        <v>24</v>
+        <v>2.4</v>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
       </c>
       <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="n">
-        <v>96</v>
+        <v>9.6</v>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
       </c>
       <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
       </c>
       <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
       </c>
       <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="n">
-        <v>252</v>
+        <v>25.2</v>
       </c>
       <c r="AH23" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
       </c>
       <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="n">
-        <v>240</v>
+        <v>24</v>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
       </c>
       <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="AH25" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
       </c>
       <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="AH26" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
       </c>
       <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="AH27" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
       </c>
       <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="n">
-        <v>36</v>
+        <v>3.6</v>
       </c>
       <c r="AH28" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
       </c>
       <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="n">
-        <v>278</v>
+        <v>27.8</v>
       </c>
       <c r="AH29" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
       </c>
       <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="n">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="AH30" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
       </c>
       <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="n">
-        <v>64</v>
+        <v>6.4</v>
       </c>
       <c r="AH31" t="inlineStr">
         <is>
@@ -12086,7 +12086,7 @@
       </c>
       <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="n">
-        <v>28</v>
+        <v>2.8</v>
       </c>
       <c r="AH32" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         </is>
       </c>
       <c r="AG33" t="n">
-        <v>14</v>
+        <v>1.4</v>
       </c>
       <c r="AH33" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
       </c>
       <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="n">
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="AH34" t="inlineStr">
         <is>
@@ -13197,7 +13197,7 @@
       </c>
       <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AH35" t="inlineStr">
         <is>
@@ -13562,7 +13562,7 @@
       </c>
       <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="n">
-        <v>16</v>
+        <v>1.6</v>
       </c>
       <c r="AH36" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
       </c>
       <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="n">
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="AH37" t="inlineStr">
         <is>
@@ -14288,7 +14288,7 @@
       </c>
       <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="AH38" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
       </c>
       <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="n">
-        <v>218</v>
+        <v>21.8</v>
       </c>
       <c r="AH39" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
       </c>
       <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="AH40" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
       </c>
       <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="n">
-        <v>16</v>
+        <v>1.6</v>
       </c>
       <c r="AH41" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         </is>
       </c>
       <c r="AG42" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="AH42" t="inlineStr">
         <is>
@@ -16121,7 +16121,7 @@
       </c>
       <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="AH43" t="inlineStr">
         <is>
@@ -16490,7 +16490,7 @@
       </c>
       <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="n">
-        <v>39</v>
+        <v>3.9</v>
       </c>
       <c r="AH44" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
       </c>
       <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="n">
-        <v>132</v>
+        <v>13.2</v>
       </c>
       <c r="AH45" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
       </c>
       <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="AH46" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
       </c>
       <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="n">
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="AH47" t="inlineStr">
         <is>
@@ -17954,7 +17954,7 @@
       </c>
       <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="n">
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="AH48" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
       </c>
       <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="n">
-        <v>24</v>
+        <v>2.4</v>
       </c>
       <c r="AH49" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
       </c>
       <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="AH50" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
       </c>
       <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="n">
-        <v>14</v>
+        <v>1.4</v>
       </c>
       <c r="AH51" t="inlineStr">
         <is>
@@ -19422,7 +19422,7 @@
       </c>
       <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="AH52" t="inlineStr">
         <is>
@@ -19787,7 +19787,7 @@
       </c>
       <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="AH53" t="inlineStr">
         <is>
@@ -20152,7 +20152,7 @@
       </c>
       <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="AH54" t="inlineStr">
         <is>
@@ -20517,7 +20517,7 @@
       </c>
       <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="n">
-        <v>14</v>
+        <v>1.4</v>
       </c>
       <c r="AH55" t="inlineStr">
         <is>
